--- a/xlsx/a69_f27UPPachuca.xlsx
+++ b/xlsx/a69_f27UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="Hidden_28">Hidden_2!$A$1:$A$3</definedName>
     <definedName name="Hidden_322">Hidden_3!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -281,37 +281,37 @@
     <t>No</t>
   </si>
   <si>
+    <t>UPP/001/2018 20-13</t>
+  </si>
+  <si>
+    <t>Concesionar la cafetería para el servicio de la comunidad estudiantil, docentes y personal administrativo</t>
+  </si>
+  <si>
+    <t>Ley de Adquisiciones, Arrendamientos y Servicios</t>
+  </si>
+  <si>
+    <t>Departamento de Adquisiciones, Arrendamientos y Servicios (UPP)</t>
+  </si>
+  <si>
+    <t>Carlos Alberto</t>
+  </si>
+  <si>
+    <t>Barrera</t>
+  </si>
+  <si>
+    <t>Neri</t>
+  </si>
+  <si>
+    <t>Carlos Alberto Barrera Neri</t>
+  </si>
+  <si>
+    <t>De la tercera a la novena</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rggXAp8NXDzAEf0uV2w3XMOzxdtQd36e/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
-  </si>
-  <si>
-    <t>Concesionar la cafetería para el servicio de la comunidad estudiantil, docentes y personal administrativo</t>
-  </si>
-  <si>
-    <t>Ley de Adquisiciones, Arrendamientos y Servicios</t>
-  </si>
-  <si>
-    <t>Departamento de Adquisiciones, Arrendamientos y Servicios (UPP)</t>
-  </si>
-  <si>
-    <t>Carlos Alberto</t>
-  </si>
-  <si>
-    <t>Barrera</t>
-  </si>
-  <si>
-    <t>Neri</t>
-  </si>
-  <si>
-    <t>Carlos Alberto Barrera Neri</t>
-  </si>
-  <si>
-    <t>De la tercera a la novena</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1rggXAp8NXDzAEf0uV2w3XMOzxdtQd36e/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>UPP/001/2018 20-13</t>
   </si>
   <si>
     <t>Los criterios e hipervinculos que se observan vacios este organismo no los genera.</t>
@@ -404,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -418,11 +418,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,6 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -719,7 +720,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD182"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +730,7 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
     <col min="7" max="7" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
@@ -776,7 +777,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1083,21 +1084,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
-      <c r="B8" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44104</v>
+      <c r="B8" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44196</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>85</v>
@@ -1147,15 +1148,15 @@
       <c r="W8" s="2"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="Z8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AA8" s="3">
-        <v>44114</v>
-      </c>
-      <c r="AB8" s="5" t="s">
+        <v>44206</v>
+      </c>
+      <c r="AB8" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1170,13 +1171,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D26">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I26">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8">
       <formula1>Hidden_28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W26">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
       <formula1>Hidden_322</formula1>
     </dataValidation>
   </dataValidations>
@@ -1192,42 +1193,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1240,22 +1246,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1268,17 +1276,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>83</v>
       </c>
     </row>

--- a/xlsx/a69_f27UPPachuca.xlsx
+++ b/xlsx/a69_f27UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <definedName name="Hidden_28">Hidden_2!$A$1:$A$3</definedName>
     <definedName name="Hidden_322">Hidden_3!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>50750</t>
   </si>
@@ -281,47 +281,17 @@
     <t>No</t>
   </si>
   <si>
-    <t>UPP/001/2018 20-13</t>
-  </si>
-  <si>
-    <t>Concesionar la cafetería para el servicio de la comunidad estudiantil, docentes y personal administrativo</t>
-  </si>
-  <si>
-    <t>Ley de Adquisiciones, Arrendamientos y Servicios</t>
-  </si>
-  <si>
-    <t>Departamento de Adquisiciones, Arrendamientos y Servicios (UPP)</t>
-  </si>
-  <si>
-    <t>Carlos Alberto</t>
-  </si>
-  <si>
-    <t>Barrera</t>
-  </si>
-  <si>
-    <t>Neri</t>
-  </si>
-  <si>
-    <t>Carlos Alberto Barrera Neri</t>
-  </si>
-  <si>
-    <t>De la tercera a la novena</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1rggXAp8NXDzAEf0uV2w3XMOzxdtQd36e/view?usp=sharing</t>
+    <t>Las tablas adyacentes, criterios e hipervinculos que se observan vacios , no los generó esta Institución ya que no se realizó ningún procedimiento de contratación en el trimetre.</t>
   </si>
   <si>
     <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
-  </si>
-  <si>
-    <t>Los criterios e hipervinculos que se observan vacios este organismo no los genera.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -341,21 +311,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -400,45 +355,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -719,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="U2" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +666,7 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
@@ -741,18 +677,18 @@
     <col min="14" max="14" width="38" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="82.85546875" customWidth="1"/>
+    <col min="17" max="17" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="77.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="61.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="69.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="49.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="91.5703125" customWidth="1"/>
+    <col min="24" max="24" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="55.7109375" customWidth="1"/>
+    <col min="28" max="28" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -761,38 +697,38 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -967,36 +903,36 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1084,80 +1020,48 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="3">
-        <v>43831</v>
-      </c>
-      <c r="O8" s="3">
-        <v>44196</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="R8" s="2">
-        <v>30000</v>
-      </c>
-      <c r="S8" s="2">
-        <v>30000</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="4"/>
+      <c r="X8" s="2"/>
       <c r="Y8" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Z8" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AA8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>95</v>
+        <v>44298</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1171,21 +1075,18 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D106">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I106">
       <formula1>Hidden_28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W106">
       <formula1>Hidden_322</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="Q8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1194,46 +1095,43 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="A8" sqref="A8:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1247,23 +1145,23 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A4" sqref="A4:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1277,18 +1175,18 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>83</v>
       </c>
     </row>

--- a/xlsx/a69_f27UPPachuca.xlsx
+++ b/xlsx/a69_f27UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -304,13 +304,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,16 +361,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U2" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="Y3" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +690,7 @@
     <col min="25" max="25" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="43.42578125" customWidth="1"/>
+    <col min="28" max="28" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -697,38 +699,38 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -903,36 +905,36 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
     </row>
     <row r="7" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1020,15 +1022,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1055,12 +1057,12 @@
         <v>85</v>
       </c>
       <c r="Z8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AA8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AB8" s="7" t="s">
+        <v>44386</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1075,13 +1077,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D106">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D75">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I106">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I75">
       <formula1>Hidden_28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W106">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W75">
       <formula1>Hidden_322</formula1>
     </dataValidation>
   </dataValidations>
@@ -1094,9 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD73"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1144,9 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD62"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1174,9 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/xlsx/a69_f27UPPachuca.xlsx
+++ b/xlsx/a69_f27UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -291,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -309,6 +309,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -356,10 +363,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -367,9 +377,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y3" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +698,7 @@
     <col min="25" max="25" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="46.85546875" customWidth="1"/>
+    <col min="28" max="28" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -699,38 +707,38 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -905,36 +913,36 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
     </row>
     <row r="7" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1022,47 +1030,47 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="3">
-        <v>44287</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2" t="s">
+      <c r="B8" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AB8" s="4" t="s">
+      <c r="Z8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="AB8" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1077,13 +1085,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D75">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D70">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I75">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I70">
       <formula1>Hidden_28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W75">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W70">
       <formula1>Hidden_322</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f27UPPachuca.xlsx
+++ b/xlsx/a69_f27UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Vo. Bo. 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -291,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -304,18 +304,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -377,12 +372,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="W2" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +698,7 @@
     <col min="25" max="25" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="45.7109375" customWidth="1"/>
+    <col min="28" max="28" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -707,38 +707,38 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -913,36 +913,36 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
     </row>
     <row r="7" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1030,15 +1030,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="4">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1061,14 +1061,14 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="5" t="s">
+      <c r="Y8" s="3" t="s">
         <v>85</v>
       </c>
       <c r="Z8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AA8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AB8" s="2" t="s">
         <v>84</v>
@@ -1085,13 +1085,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D70">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I70">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8">
       <formula1>Hidden_28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W70">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
       <formula1>Hidden_322</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f27UPPachuca.xlsx
+++ b/xlsx/a69_f27UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Vo. Bo. 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -291,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -312,6 +307,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -331,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -354,11 +356,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -377,12 +388,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,7 +667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -665,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W2" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" topLeftCell="Z3" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +710,7 @@
     <col min="25" max="25" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="45" customWidth="1"/>
+    <col min="28" max="28" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -723,7 +735,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1030,15 +1042,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="4">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1061,14 +1073,14 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="10" t="s">
         <v>85</v>
       </c>
       <c r="Z8" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AA8" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AB8" s="2" t="s">
         <v>84</v>
@@ -1085,18 +1097,17 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D73">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I73">
       <formula1>Hidden_28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W73">
       <formula1>Hidden_322</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f27UPPachuca.xlsx
+++ b/xlsx/a69_f27UPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15600" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -18,6 +23,7 @@
     <definedName name="Hidden_322">Hidden_3!$A$1:$A$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -276,10 +282,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Las tablas adyacentes, criterios e hipervinculos que se observan vacios , no los generó esta Institución ya que no se realizó ningún procedimiento de contratación en el trimetre.</t>
-  </si>
-  <si>
     <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
+  </si>
+  <si>
+    <t>La Universidad Politécnica de Pachuca no realizo concesiones, contratos, convenios, permisos, licencias o autorizaciones.</t>
   </si>
 </sst>
 </file>
@@ -375,13 +381,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,7 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,39 +431,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,142 +542,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -677,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y3" workbookViewId="0">
       <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
@@ -710,7 +742,7 @@
     <col min="25" max="25" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="49.7109375" customWidth="1"/>
+    <col min="28" max="28" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -719,38 +751,38 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -925,36 +957,36 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
     </row>
     <row r="7" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1042,48 +1074,48 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2022</v>
       </c>
-      <c r="B8" s="4">
-        <v>44562</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44651</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="10" t="s">
+      <c r="B8" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AB8" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1097,17 +1129,18 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D73">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I73">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8">
       <formula1>Hidden_28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W73">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
       <formula1>Hidden_322</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f27UPPachuca.xlsx
+++ b/xlsx/a69_f27UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15600" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -22,13 +17,12 @@
     <definedName name="Hidden_28">Hidden_2!$A$1:$A$3</definedName>
     <definedName name="Hidden_322">Hidden_3!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>50750</t>
   </si>
@@ -282,10 +276,31 @@
     <t>No</t>
   </si>
   <si>
-    <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
-  </si>
-  <si>
-    <t>La Universidad Politécnica de Pachuca no realizo concesiones, contratos, convenios, permisos, licencias o autorizaciones.</t>
+    <t xml:space="preserve"> Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
+  </si>
+  <si>
+    <t>Consesión de Cafeteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extención de contrato </t>
+  </si>
+  <si>
+    <t>UPP/001/2018   22-31</t>
+  </si>
+  <si>
+    <t>Insumos y Suministros Especializados de Hidalgo, S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>3, 4 Y 5</t>
+  </si>
+  <si>
+    <t>Comité Técnico de Evaluación y Consesión de la Cafetería y Similares del genero de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/27/22-31%20CAFETERIA-2022.pdf</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca otorgo la consesion a una persona moral,  Las tablas adyacentes, hipervínculos y criterios que se encuentran vacíos es porque no lo requiere este procedimiento.</t>
   </si>
 </sst>
 </file>
@@ -314,8 +329,9 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -372,10 +388,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -383,20 +400,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -404,7 +427,8 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,39 +455,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,166 +566,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y3" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,16 +722,16 @@
     <col min="5" max="5" width="80" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
     <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="58.42578125" customWidth="1"/>
     <col min="14" max="14" width="38" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="63.5703125" customWidth="1"/>
     <col min="18" max="18" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="77.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="61.42578125" bestFit="1" customWidth="1"/>
@@ -742,7 +742,7 @@
     <col min="25" max="25" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="49.42578125" customWidth="1"/>
+    <col min="28" max="28" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -778,11 +778,11 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1074,48 +1074,74 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+        <v>44834</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="M8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="4">
+        <v>44683</v>
+      </c>
+      <c r="O8" s="4">
+        <v>44926</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R8" s="2">
+        <v>30000</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="X8" s="2"/>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" s="2" t="s">
         <v>84</v>
       </c>
       <c r="Z8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AA8" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>85</v>
+        <v>44844</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1129,18 +1155,20 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D24">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I24">
       <formula1>Hidden_28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W24">
       <formula1>Hidden_322</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="Q8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f27UPPachuca.xlsx
+++ b/xlsx/a69_f27UPPachuca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="Hidden_28">Hidden_2!$A$1:$A$3</definedName>
     <definedName name="Hidden_322">Hidden_3!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -276,38 +276,38 @@
     <t>No</t>
   </si>
   <si>
+    <t>UPP/001/2018   22-31</t>
+  </si>
+  <si>
+    <t>Consesión de Cafeteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extención de contrato </t>
+  </si>
+  <si>
+    <t>comité Técnico de Evaluación y Consesión de la Cafetería y Similares del genero de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Insumos y Suministros Especializados de Hidalgo, S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>3, 4 Y 5</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
   </si>
   <si>
-    <t>Consesión de Cafeteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extención de contrato </t>
-  </si>
-  <si>
-    <t>UPP/001/2018   22-31</t>
-  </si>
-  <si>
-    <t>Insumos y Suministros Especializados de Hidalgo, S.A. de C.V.</t>
-  </si>
-  <si>
-    <t>3, 4 Y 5</t>
-  </si>
-  <si>
-    <t>Comité Técnico de Evaluación y Consesión de la Cafetería y Similares del genero de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/27/22-31%20CAFETERIA-2022.pdf</t>
-  </si>
-  <si>
-    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca otorgo la consesion a una persona moral,  Las tablas adyacentes, hipervínculos y criterios que se encuentran vacíos es porque no lo requiere este procedimiento.</t>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/27/22-31%20CAFETERIA-2022.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca otorgo la consesion a una persona moral,  Las tablas adyacentes, hipervínculos y criterios que se encuentran vacíos es porque no lo requiere este procedimiento de consesion. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -327,6 +327,13 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -390,7 +397,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -400,26 +407,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -455,39 +462,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,7 +529,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,142 +573,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -710,7 +741,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,16 +753,16 @@
     <col min="5" max="5" width="80" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="58.42578125" customWidth="1"/>
+    <col min="13" max="13" width="57.42578125" customWidth="1"/>
     <col min="14" max="14" width="38" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="63.5703125" customWidth="1"/>
+    <col min="17" max="17" width="78.140625" customWidth="1"/>
     <col min="18" max="18" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="77.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="61.42578125" bestFit="1" customWidth="1"/>
@@ -742,7 +773,7 @@
     <col min="25" max="25" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="47" customWidth="1"/>
+    <col min="28" max="28" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -751,33 +782,33 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
@@ -957,36 +988,36 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
     </row>
     <row r="7" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1074,21 +1105,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>85</v>
@@ -1097,7 +1128,7 @@
         <v>86</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>79</v>
@@ -1108,16 +1139,16 @@
       <c r="M8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>44683</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>44926</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="6" t="s">
         <v>91</v>
       </c>
       <c r="R8" s="2">
@@ -1131,16 +1162,16 @@
         <v>83</v>
       </c>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2" t="s">
-        <v>84</v>
+      <c r="Y8" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="Z8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AA8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AB8" s="10" t="s">
+        <v>44936</v>
+      </c>
+      <c r="AB8" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1155,13 +1186,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D126">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I126">
       <formula1>Hidden_28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W126">
       <formula1>Hidden_322</formula1>
     </dataValidation>
   </dataValidations>
@@ -1169,6 +1200,7 @@
     <hyperlink ref="Q8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f27UPPachuca.xlsx
+++ b/xlsx/a69_f27UPPachuca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="Hidden_28">Hidden_2!$A$1:$A$3</definedName>
     <definedName name="Hidden_322">Hidden_3!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -276,9 +276,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>UPP/001/2018   22-31</t>
-  </si>
-  <si>
     <t>Consesión de Cafeteria</t>
   </si>
   <si>
@@ -297,10 +294,13 @@
     <t xml:space="preserve"> Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
   </si>
   <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/27/22-31%20CAFETERIA-2022.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca otorgo la consesion a una persona moral,  Las tablas adyacentes, hipervínculos y criterios que se encuentran vacíos es porque no lo requiere este procedimiento de consesion. </t>
+    <t>UPP/001/2018   23-08</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca otorgo la consesion a una persona moral,  Las tablas adyacentes, hipervínculos y criterios que se encuentran vacíos es porque no lo requiere este procedimiento.</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/27/23-08%20AMPLIACION%20DE%20CONTRATO%20ENERO-ABRIL%202023%20CONSESION%20CAFETERIA.PDF</t>
   </si>
 </sst>
 </file>
@@ -416,12 +416,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,6 +426,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -462,39 +462,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,7 +529,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,166 +573,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -741,7 +717,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,11 +734,11 @@
     <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.42578125" customWidth="1"/>
+    <col min="13" max="13" width="59.28515625" customWidth="1"/>
     <col min="14" max="14" width="38" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="78.140625" customWidth="1"/>
+    <col min="17" max="17" width="99.28515625" customWidth="1"/>
     <col min="18" max="18" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="77.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="61.42578125" bestFit="1" customWidth="1"/>
@@ -773,7 +749,7 @@
     <col min="25" max="25" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="42.28515625" customWidth="1"/>
+    <col min="28" max="28" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -782,38 +758,38 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -988,36 +964,36 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
     </row>
     <row r="7" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1105,30 +1081,30 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>79</v>
@@ -1136,20 +1112,20 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="3">
+        <v>44973</v>
+      </c>
+      <c r="O8" s="3">
+        <v>45046</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="3">
-        <v>44683</v>
-      </c>
-      <c r="O8" s="3">
-        <v>44926</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>91</v>
+      <c r="Q8" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="R8" s="2">
         <v>30000</v>
@@ -1163,16 +1139,16 @@
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z8" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AA8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>92</v>
+        <v>45026</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1186,13 +1162,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D126">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I126">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I201">
       <formula1>Hidden_28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W126">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W201">
       <formula1>Hidden_322</formula1>
     </dataValidation>
   </dataValidations>
@@ -1200,7 +1176,6 @@
     <hyperlink ref="Q8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f27UPPachuca.xlsx
+++ b/xlsx/a69_f27UPPachuca.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Observaciones ITHAI\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F707E5-5446-4E1B-A3E0-1C3C0441D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Hidden_1" sheetId="2" r:id="rId2"/>
     <sheet name="Hidden_2" sheetId="3" r:id="rId3"/>
     <sheet name="Hidden_3" sheetId="4" r:id="rId4"/>
+    <sheet name="Hidden_4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$7</definedName>
     <definedName name="Hidden_28">Hidden_2!$A$1:$A$3</definedName>
-    <definedName name="Hidden_322">Hidden_3!$A$1:$A$2</definedName>
+    <definedName name="Hidden_313">Hidden_3!$A$1:$A$2</definedName>
+    <definedName name="Hidden_423">Hidden_4!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>50750</t>
   </si>
@@ -108,6 +116,9 @@
     <t>466527</t>
   </si>
   <si>
+    <t>570808</t>
+  </si>
+  <si>
     <t>466533</t>
   </si>
   <si>
@@ -195,6 +206,9 @@
     <t>Razón social del titular al cual se otorgó el acto jurídico</t>
   </si>
   <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Sexo (catálogo)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fecha de inicio de vigencia del acto jurídico </t>
   </si>
   <si>
@@ -270,44 +284,56 @@
     <t>Mixto</t>
   </si>
   <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
     <t>Si</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
+  </si>
+  <si>
     <t>Consesión de Cafeteria</t>
   </si>
   <si>
     <t xml:space="preserve">Extención de contrato </t>
   </si>
   <si>
-    <t>comité Técnico de Evaluación y Consesión de la Cafetería y Similares del genero de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Insumos y Suministros Especializados de Hidalgo, S.A. de C.V.</t>
+    <t>UPP/001/2018   23-34</t>
+  </si>
+  <si>
+    <t>Comité Técnico de Evaluación y Consesión de la Cafetería y Similares del genero de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Erika</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>Badillo</t>
   </si>
   <si>
     <t>3, 4 Y 5</t>
   </si>
   <si>
-    <t xml:space="preserve"> Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
-  </si>
-  <si>
-    <t>UPP/001/2018   23-08</t>
-  </si>
-  <si>
-    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca otorgo la consesion a una persona moral,  Las tablas adyacentes, hipervínculos y criterios que se encuentran vacíos es porque no lo requiere este procedimiento.</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/27/23-08%20AMPLIACION%20DE%20CONTRATO%20ENERO-ABRIL%202023%20CONSESION%20CAFETERIA.PDF</t>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca otorgo la consesion a una persona fisica la vigencia del contraro es del 1/05/2023 al 31/12/2023. Las tablas adyacentes, hipervínculos y criterios que se encuentran vacíos es porque no lo requiere este procedimiento.</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_27/23-34%20CAFETERIA%20MAYO-DIC-2023%20%282%29%20%281%29.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -327,13 +353,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -362,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -385,19 +404,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -410,28 +420,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -462,39 +470,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,6 +535,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -562,6 +587,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,151 +615,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="R2" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,64 +800,65 @@
     <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.28515625" customWidth="1"/>
-    <col min="14" max="14" width="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="99.28515625" customWidth="1"/>
-    <col min="18" max="18" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="77.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="69.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="47.5703125" customWidth="1"/>
+    <col min="13" max="13" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="157.7109375" customWidth="1"/>
+    <col min="19" max="19" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -832,25 +899,25 @@
         <v>7</v>
       </c>
       <c r="N4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="s">
         <v>8</v>
       </c>
       <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>11</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>10</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>12</v>
-      </c>
-      <c r="T4" t="s">
-        <v>11</v>
       </c>
       <c r="U4" t="s">
         <v>11</v>
@@ -859,25 +926,28 @@
         <v>11</v>
       </c>
       <c r="W4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" t="s">
         <v>9</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>13</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -962,198 +1032,212 @@
       <c r="AB5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="AC5" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-    </row>
-    <row r="7" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+    </row>
+    <row r="7" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="3">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" s="3">
-        <v>44973</v>
-      </c>
       <c r="O8" s="3">
-        <v>45046</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="R8" s="2">
+        <v>45047</v>
+      </c>
+      <c r="P8" s="3">
+        <v>45291</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="2">
         <v>30000</v>
       </c>
-      <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>45026</v>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="AA8" s="3">
-        <v>45026</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>91</v>
+        <v>45117</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>45117</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:AB6"/>
+    <mergeCell ref="A6:AC6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1161,26 +1245,30 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I201" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W201">
-      <formula1>Hidden_322</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N8:N201" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>Hidden_313</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X201" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>Hidden_423</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q8" r:id="rId1"/>
+    <hyperlink ref="R8" r:id="rId1" xr:uid="{75B7CEBE-7A06-41A8-8F8A-FA4DF05FF82F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1189,37 +1277,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1237,17 +1325,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1265,12 +1353,35 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
